--- a/dataset/productos.xlsx
+++ b/dataset/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5550FE-516A-4018-8F37-D88EAFC6BD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B8942-DF34-4785-8047-FE0AE3B6055B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,24 +761,24 @@
   </sheetPr>
   <dimension ref="A1:H2016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="4"/>
-    <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
     <col min="9" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
